--- a/Digikey/Regulators.xlsx
+++ b/Digikey/Regulators.xlsx
@@ -16,6 +16,7 @@
     <sheet name="Reg-TH" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1044" uniqueCount="270">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1046" uniqueCount="272">
   <si>
     <t>Datasheets</t>
   </si>
@@ -813,28 +814,34 @@
     <t>IC REG LDO 1.5V 7.5A TO220-5</t>
   </si>
   <si>
-    <t>TO254P1600X1054X470-3</t>
-  </si>
-  <si>
-    <t>TO170P1451X1067X483-5</t>
-  </si>
-  <si>
-    <t>DIP762W26P254L990H368Q8</t>
-  </si>
-  <si>
     <t>SOP65P495X110-8L30_HS</t>
   </si>
   <si>
-    <t>TO170P1524X483-6N</t>
-  </si>
-  <si>
-    <t>TO254P1435X464-4N</t>
-  </si>
-  <si>
     <t>SOIC127P600X175-8L86_HS</t>
   </si>
   <si>
-    <t>SOT95P280X145-5L10N</t>
+    <t>SOT95P280X145-5L10_HS</t>
+  </si>
+  <si>
+    <t>TO254P1435X464-4_HS</t>
+  </si>
+  <si>
+    <t>TO170P1524X483-6_HS</t>
+  </si>
+  <si>
+    <t>DIP62W26P254L990H368Q8_HS</t>
+  </si>
+  <si>
+    <t>DIP762W26P254L990H368Q8_HS</t>
+  </si>
+  <si>
+    <t>TO254P1550X1054X470-3_HS</t>
+  </si>
+  <si>
+    <t>TO170P1651X1067X483-5_HS</t>
+  </si>
+  <si>
+    <t>MICREL_2950_HS</t>
   </si>
 </sst>
 </file>
@@ -1651,8 +1658,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="X21" sqref="X21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD37" sqref="AD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1822,7 +1829,7 @@
         <v>40</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1899,7 +1906,7 @@
         <v>47</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1976,7 +1983,7 @@
         <v>47</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2053,7 +2060,7 @@
         <v>67</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2130,7 +2137,7 @@
         <v>67</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2207,7 +2214,7 @@
         <v>67</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2284,7 +2291,7 @@
         <v>67</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2361,7 +2368,7 @@
         <v>67</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2438,7 +2445,7 @@
         <v>67</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2515,7 +2522,7 @@
         <v>67</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2592,7 +2599,7 @@
         <v>67</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2669,7 +2676,7 @@
         <v>47</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2746,7 +2753,7 @@
         <v>47</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2823,7 +2830,7 @@
         <v>67</v>
       </c>
       <c r="AA15" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2900,7 +2907,7 @@
         <v>67</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2977,7 +2984,7 @@
         <v>67</v>
       </c>
       <c r="AA17" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3054,7 +3061,7 @@
         <v>67</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3131,7 +3138,7 @@
         <v>67</v>
       </c>
       <c r="AA19" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3208,7 +3215,7 @@
         <v>67</v>
       </c>
       <c r="AA20" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3285,7 +3292,7 @@
         <v>67</v>
       </c>
       <c r="AA21" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3362,7 +3369,7 @@
         <v>67</v>
       </c>
       <c r="AA22" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="23" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3439,7 +3446,7 @@
         <v>67</v>
       </c>
       <c r="AA23" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="24" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3516,7 +3523,7 @@
         <v>67</v>
       </c>
       <c r="AA24" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3593,7 +3600,7 @@
         <v>67</v>
       </c>
       <c r="AA25" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3670,7 +3677,7 @@
         <v>67</v>
       </c>
       <c r="AA26" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="27" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3747,7 +3754,7 @@
         <v>67</v>
       </c>
       <c r="AA27" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3824,7 +3831,7 @@
         <v>67</v>
       </c>
       <c r="AA28" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3901,7 +3908,7 @@
         <v>67</v>
       </c>
       <c r="AA29" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3978,7 +3985,7 @@
         <v>67</v>
       </c>
       <c r="AA30" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4055,7 +4062,7 @@
         <v>67</v>
       </c>
       <c r="AA31" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="32" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4132,7 +4139,7 @@
         <v>178</v>
       </c>
       <c r="AA32" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4209,7 +4216,7 @@
         <v>178</v>
       </c>
       <c r="AA33" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="34" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4286,7 +4293,7 @@
         <v>178</v>
       </c>
       <c r="AA34" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4363,7 +4370,7 @@
         <v>178</v>
       </c>
       <c r="AA35" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="36" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4684,8 +4691,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB15"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D2" sqref="A2:XFD2"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y32" sqref="Y32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4859,7 +4866,7 @@
         <v>56</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4935,6 +4942,9 @@
       <c r="X3" s="1" t="s">
         <v>237</v>
       </c>
+      <c r="AA3" s="1" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="4" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -5009,6 +5019,9 @@
       <c r="X4" s="1" t="s">
         <v>237</v>
       </c>
+      <c r="AA4" s="1" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="5" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -5084,7 +5097,7 @@
         <v>56</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5161,7 +5174,7 @@
         <v>187</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5238,7 +5251,7 @@
         <v>187</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5315,7 +5328,7 @@
         <v>187</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5392,7 +5405,7 @@
         <v>187</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5469,7 +5482,7 @@
         <v>225</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -5546,7 +5559,7 @@
         <v>225</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
@@ -5623,7 +5636,7 @@
         <v>225</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -5700,7 +5713,7 @@
         <v>225</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
@@ -5777,7 +5790,7 @@
         <v>225</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
@@ -5854,7 +5867,7 @@
         <v>225</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/Digikey/Regulators.xlsx
+++ b/Digikey/Regulators.xlsx
@@ -5,18 +5,17 @@
   <workbookPr dateCompatibility="0" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen Deiss\Documents\eagle\Extra_Eagle_Libs\DigiKey\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\PCB Libraries\Library Expert 2015\Libraries\NVSL-Footprint-Library\Eagle\DigiKey\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28725" windowHeight="10800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28725" windowHeight="10800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Reg-SMD" sheetId="2" r:id="rId1"/>
     <sheet name="Reg-TH" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -841,7 +840,7 @@
     <t>TO170P1651X1067X483-5_HS</t>
   </si>
   <si>
-    <t>MICREL_2950_HS</t>
+    <t>TO-92-3_HS</t>
   </si>
 </sst>
 </file>
@@ -1658,7 +1657,7 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AD37" sqref="AD37"/>
     </sheetView>
   </sheetViews>
@@ -4691,8 +4690,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y32" sqref="Y32"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y17" sqref="Y17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Digikey/Regulators.xlsx
+++ b/Digikey/Regulators.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15" conformance="strict">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr dateCompatibility="0" defaultThemeVersion="153222"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\PCB Libraries\Library Expert 2015\Libraries\NVSL-Footprint-Library\Eagle\DigiKey\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen Deiss\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,16 +16,11 @@
     <sheet name="Reg-TH" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1046" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="272">
   <si>
     <t>Datasheets</t>
   </si>
@@ -846,7 +841,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1172,15 +1167,15 @@
   </fills>
   <borders count="10">
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thick">
         <color theme="4"/>
@@ -1188,8 +1183,8 @@
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thick">
         <color theme="4" tint="0.499984740745262"/>
@@ -1197,8 +1192,8 @@
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.39997558519241921"/>
@@ -1206,12 +1201,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
-      </start>
-      <end style="thin">
+      </left>
+      <right style="thin">
         <color rgb="FF7F7F7F"/>
-      </end>
+      </right>
       <top style="thin">
         <color rgb="FF7F7F7F"/>
       </top>
@@ -1221,12 +1216,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
-      </start>
-      <end style="thin">
+      </left>
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
-      </end>
+      </right>
       <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
@@ -1236,8 +1231,8 @@
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1245,12 +1240,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="double">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
-      </start>
-      <end style="double">
+      </left>
+      <right style="double">
         <color rgb="FF3F3F3F"/>
-      </end>
+      </right>
       <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
@@ -1260,12 +1255,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
-      </start>
-      <end style="thin">
+      </left>
+      <right style="thin">
         <color rgb="FFB2B2B2"/>
-      </end>
+      </right>
       <top style="thin">
         <color rgb="FFB2B2B2"/>
       </top>
@@ -1275,8 +1270,8 @@
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1393,7 +1388,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1512,25 +1507,25 @@
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
+            <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110%"/>
-                <a:satMod val="105%"/>
-                <a:tint val="67%"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50%">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105%"/>
-                <a:satMod val="103%"/>
-                <a:tint val="73%"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100%">
+            <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105%"/>
-                <a:satMod val="109%"/>
-                <a:tint val="81%"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -1538,25 +1533,25 @@
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
+            <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103%"/>
-                <a:lumMod val="102%"/>
-                <a:tint val="94%"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50%">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110%"/>
-                <a:lumMod val="100%"/>
-                <a:shade val="100%"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100%">
+            <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99%"/>
-                <a:satMod val="120%"/>
-                <a:shade val="78%"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -1569,21 +1564,21 @@
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -1597,7 +1592,7 @@
           <a:effectLst>
             <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63%"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -1609,32 +1604,32 @@
         </a:solidFill>
         <a:solidFill>
           <a:schemeClr val="phClr">
-            <a:tint val="95%"/>
-            <a:satMod val="170%"/>
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
+            <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93%"/>
-                <a:satMod val="150%"/>
-                <a:shade val="98%"/>
-                <a:lumMod val="102%"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50%">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="98%"/>
-                <a:satMod val="130%"/>
-                <a:shade val="90%"/>
-                <a:lumMod val="103%"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100%">
+            <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63%"/>
-                <a:satMod val="120%"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -1654,7 +1649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB39"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -4687,11 +4682,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y17" sqref="Y17"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Digikey/Regulators.xlsx
+++ b/Digikey/Regulators.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28725" windowHeight="10800" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28725" windowHeight="10800"/>
   </bookViews>
   <sheets>
-    <sheet name="Reg-SMD" sheetId="2" r:id="rId1"/>
-    <sheet name="Reg-TH" sheetId="3" r:id="rId2"/>
+    <sheet name="Regulators-SMD" sheetId="2" r:id="rId1"/>
+    <sheet name="Regulators-TH" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -1652,7 +1652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AD37" sqref="AD37"/>
     </sheetView>
   </sheetViews>
@@ -4685,7 +4685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>

--- a/Digikey/Regulators.xlsx
+++ b/Digikey/Regulators.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen Deiss\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25317"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28725" windowHeight="10800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Regulators-SMD" sheetId="2" r:id="rId1"/>
-    <sheet name="Regulators-TH" sheetId="3" r:id="rId2"/>
+    <sheet name="Regulators-Fixed-SMD" sheetId="4" r:id="rId1"/>
+    <sheet name="Regulators-Adjustable-SMD" sheetId="2" r:id="rId2"/>
+    <sheet name="Regulators-Fixed-TH" sheetId="5" r:id="rId3"/>
+    <sheet name="Regulators-Adjustable-TH" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="276">
   <si>
     <t>Datasheets</t>
   </si>
@@ -836,13 +838,25 @@
   </si>
   <si>
     <t>TO-92-3_HS</t>
+  </si>
+  <si>
+    <t>TH-TO-92-3</t>
+  </si>
+  <si>
+    <t>TH-TO-220-3</t>
+  </si>
+  <si>
+    <t>TH-TO-220-5</t>
+  </si>
+  <si>
+    <t>TH-DIP8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -979,6 +993,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1281,7 +1311,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1324,13 +1354,45 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="74">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1359,11 +1421,43 @@
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1374,7 +1468,110 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1385,6 +1582,166 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A1:AB33" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:AB33"/>
+  <sortState ref="A2:AB39">
+    <sortCondition ref="N1:N39"/>
+  </sortState>
+  <tableColumns count="28">
+    <tableColumn id="1" name="Datasheets"/>
+    <tableColumn id="2" name="Image"/>
+    <tableColumn id="3" name="Digi-Key Part Number"/>
+    <tableColumn id="4" name="Manufacturer Part Number"/>
+    <tableColumn id="5" name="Manufacturer"/>
+    <tableColumn id="6" name="Description"/>
+    <tableColumn id="7" name="Quantity Available"/>
+    <tableColumn id="8" name="Factory Stock"/>
+    <tableColumn id="9" name="Unit Price (USD)"/>
+    <tableColumn id="10" name="@ qty"/>
+    <tableColumn id="11" name="Minimum Quantity"/>
+    <tableColumn id="12" name="Packaging"/>
+    <tableColumn id="13" name="Series"/>
+    <tableColumn id="14" name="Regulator Topology"/>
+    <tableColumn id="15" name="Voltage - Output"/>
+    <tableColumn id="16" name="Current - Output"/>
+    <tableColumn id="17" name="Voltage - Dropout (Typical)"/>
+    <tableColumn id="18" name="Number of Regulators"/>
+    <tableColumn id="19" name="Voltage - Input"/>
+    <tableColumn id="20" name="Current - Limit (Min)"/>
+    <tableColumn id="21" name="Operating Temperature"/>
+    <tableColumn id="22" name="Mounting Type"/>
+    <tableColumn id="23" name="Package / Case"/>
+    <tableColumn id="24" name="Supplier Device Package"/>
+    <tableColumn id="25" name="Stock"/>
+    <tableColumn id="26" name="Query"/>
+    <tableColumn id="27" name="Package"/>
+    <tableColumn id="28" name="Device"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AB12" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="A1:AB12"/>
+  <sortState ref="A2:AB39">
+    <sortCondition ref="N1:N39"/>
+  </sortState>
+  <tableColumns count="28">
+    <tableColumn id="1" name="Datasheets"/>
+    <tableColumn id="2" name="Image"/>
+    <tableColumn id="3" name="Digi-Key Part Number"/>
+    <tableColumn id="4" name="Manufacturer Part Number"/>
+    <tableColumn id="5" name="Manufacturer"/>
+    <tableColumn id="6" name="Description"/>
+    <tableColumn id="7" name="Quantity Available"/>
+    <tableColumn id="8" name="Factory Stock"/>
+    <tableColumn id="9" name="Unit Price (USD)"/>
+    <tableColumn id="10" name="@ qty"/>
+    <tableColumn id="11" name="Minimum Quantity"/>
+    <tableColumn id="12" name="Packaging"/>
+    <tableColumn id="13" name="Series"/>
+    <tableColumn id="14" name="Regulator Topology"/>
+    <tableColumn id="15" name="Voltage - Output"/>
+    <tableColumn id="16" name="Current - Output"/>
+    <tableColumn id="17" name="Voltage - Dropout (Typical)"/>
+    <tableColumn id="18" name="Number of Regulators"/>
+    <tableColumn id="19" name="Voltage - Input"/>
+    <tableColumn id="20" name="Current - Limit (Min)"/>
+    <tableColumn id="21" name="Operating Temperature"/>
+    <tableColumn id="22" name="Mounting Type"/>
+    <tableColumn id="23" name="Package / Case"/>
+    <tableColumn id="24" name="Supplier Device Package"/>
+    <tableColumn id="25" name="Stock"/>
+    <tableColumn id="26" name="Query"/>
+    <tableColumn id="27" name="Package"/>
+    <tableColumn id="28" name="Device"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table36" displayName="Table36" ref="A1:AB12" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:AB12"/>
+  <sortState ref="A2:AB15">
+    <sortCondition ref="N1:N15"/>
+  </sortState>
+  <tableColumns count="28">
+    <tableColumn id="1" name="Datasheets"/>
+    <tableColumn id="2" name="Image"/>
+    <tableColumn id="3" name="Digi-Key Part Number"/>
+    <tableColumn id="4" name="Manufacturer Part Number"/>
+    <tableColumn id="5" name="Manufacturer"/>
+    <tableColumn id="6" name="Description"/>
+    <tableColumn id="7" name="Quantity Available"/>
+    <tableColumn id="8" name="Factory Stock"/>
+    <tableColumn id="9" name="Unit Price (USD)"/>
+    <tableColumn id="10" name="@ qty"/>
+    <tableColumn id="11" name="Minimum Quantity"/>
+    <tableColumn id="12" name="Packaging"/>
+    <tableColumn id="13" name="Series"/>
+    <tableColumn id="14" name="Regulator Topology"/>
+    <tableColumn id="15" name="Voltage - Output"/>
+    <tableColumn id="16" name="Current - Output"/>
+    <tableColumn id="17" name="Voltage - Dropout (Typical)"/>
+    <tableColumn id="18" name="Number of Regulators"/>
+    <tableColumn id="19" name="Voltage - Input"/>
+    <tableColumn id="20" name="Current - Limit (Min)"/>
+    <tableColumn id="21" name="Operating Temperature"/>
+    <tableColumn id="22" name="Mounting Type"/>
+    <tableColumn id="23" name="Package / Case"/>
+    <tableColumn id="24" name="Supplier Device Package"/>
+    <tableColumn id="25" name="Stock"/>
+    <tableColumn id="26" name="Query"/>
+    <tableColumn id="27" name="Package" dataDxfId="1"/>
+    <tableColumn id="28" name="Device"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:AB6" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:AB6"/>
+  <sortState ref="A2:AB15">
+    <sortCondition ref="N1:N15"/>
+  </sortState>
+  <tableColumns count="28">
+    <tableColumn id="1" name="Datasheets"/>
+    <tableColumn id="2" name="Image"/>
+    <tableColumn id="3" name="Digi-Key Part Number"/>
+    <tableColumn id="4" name="Manufacturer Part Number"/>
+    <tableColumn id="5" name="Manufacturer"/>
+    <tableColumn id="6" name="Description"/>
+    <tableColumn id="7" name="Quantity Available"/>
+    <tableColumn id="8" name="Factory Stock"/>
+    <tableColumn id="9" name="Unit Price (USD)"/>
+    <tableColumn id="10" name="@ qty"/>
+    <tableColumn id="11" name="Minimum Quantity"/>
+    <tableColumn id="12" name="Packaging"/>
+    <tableColumn id="13" name="Series"/>
+    <tableColumn id="14" name="Regulator Topology"/>
+    <tableColumn id="15" name="Voltage - Output"/>
+    <tableColumn id="16" name="Current - Output"/>
+    <tableColumn id="17" name="Voltage - Dropout (Typical)"/>
+    <tableColumn id="18" name="Number of Regulators"/>
+    <tableColumn id="19" name="Voltage - Input"/>
+    <tableColumn id="20" name="Current - Limit (Min)"/>
+    <tableColumn id="21" name="Operating Temperature"/>
+    <tableColumn id="22" name="Mounting Type"/>
+    <tableColumn id="23" name="Package / Case"/>
+    <tableColumn id="24" name="Supplier Device Package"/>
+    <tableColumn id="25" name="Stock"/>
+    <tableColumn id="26" name="Query"/>
+    <tableColumn id="27" name="Package" dataDxfId="4"/>
+    <tableColumn id="28" name="Device"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1430,7 +1787,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1465,7 +1822,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1642,7 +1999,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1650,20 +2007,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB39"/>
+  <dimension ref="A1:AB33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD37" sqref="AD37"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="23" max="23" width="18.42578125" customWidth="1"/>
-    <col min="24" max="24" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="12" max="12" width="11.1640625" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" customWidth="1"/>
+    <col min="15" max="15" width="16.6640625" customWidth="1"/>
+    <col min="16" max="16" width="16.1640625" customWidth="1"/>
+    <col min="17" max="17" width="23.83203125" customWidth="1"/>
+    <col min="18" max="18" width="20.33203125" customWidth="1"/>
+    <col min="19" max="19" width="14.83203125" customWidth="1"/>
+    <col min="20" max="20" width="19" customWidth="1"/>
+    <col min="21" max="21" width="21.5" customWidth="1"/>
+    <col min="22" max="22" width="15.1640625" customWidth="1"/>
+    <col min="23" max="23" width="18.5" customWidth="1"/>
+    <col min="24" max="24" width="21.83203125" customWidth="1"/>
+    <col min="27" max="27" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1749,33 +2125,33 @@
         <v>229</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="G2" s="1">
-        <v>4632</v>
+        <v>3054</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>1.54</v>
+        <v>0.9</v>
       </c>
       <c r="J2" s="1">
         <v>0</v>
@@ -1784,28 +2160,28 @@
         <v>1</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="R2" s="1">
         <v>1</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>31</v>
@@ -1817,42 +2193,42 @@
         <v>38</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="G3" s="1">
-        <v>4619</v>
+        <v>5969</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -1867,22 +2243,22 @@
         <v>31</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="R3" s="1">
         <v>1</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>31</v>
@@ -1894,42 +2270,42 @@
         <v>38</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G4" s="1">
-        <v>1197</v>
+        <v>4226</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>1.26</v>
+        <v>0.9</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -1938,28 +2314,28 @@
         <v>1</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="R4" s="1">
         <v>1</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>31</v>
@@ -1971,16 +2347,16 @@
         <v>38</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
-    <row r="5" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
         <v>57</v>
       </c>
@@ -1988,19 +2364,19 @@
         <v>58</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="G5" s="1">
-        <v>7057</v>
+        <v>4707</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
@@ -2021,10 +2397,10 @@
         <v>31</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>34</v>
@@ -2036,7 +2412,7 @@
         <v>1</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>31</v>
@@ -2057,7 +2433,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="6" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" s="1" customFormat="1">
       <c r="A6" s="1" t="s">
         <v>57</v>
       </c>
@@ -2065,19 +2441,19 @@
         <v>58</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="G6" s="1">
-        <v>3054</v>
+        <v>2880</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
@@ -2101,7 +2477,7 @@
         <v>71</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>34</v>
@@ -2113,7 +2489,7 @@
         <v>1</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>31</v>
@@ -2134,7 +2510,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="7" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" s="1" customFormat="1">
       <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
@@ -2142,19 +2518,19 @@
         <v>58</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="G7" s="1">
-        <v>5969</v>
+        <v>2300</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
@@ -2178,7 +2554,7 @@
         <v>71</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>34</v>
@@ -2211,7 +2587,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="8" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" s="1" customFormat="1">
       <c r="A8" s="1" t="s">
         <v>57</v>
       </c>
@@ -2219,19 +2595,19 @@
         <v>58</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="G8" s="1">
-        <v>4226</v>
+        <v>1940</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
@@ -2255,7 +2631,7 @@
         <v>71</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>34</v>
@@ -2288,33 +2664,33 @@
         <v>264</v>
       </c>
     </row>
-    <row r="9" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" s="1" customFormat="1">
       <c r="A9" s="1" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G9" s="1">
-        <v>4707</v>
+        <v>1789</v>
       </c>
       <c r="H9" s="1">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I9" s="1">
-        <v>0.9</v>
+        <v>1.07</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -2332,22 +2708,22 @@
         <v>71</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="R9" s="1">
         <v>1</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>37</v>
@@ -2365,33 +2741,33 @@
         <v>264</v>
       </c>
     </row>
-    <row r="10" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" s="1" customFormat="1">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G10" s="1">
-        <v>2880</v>
+        <v>1966</v>
       </c>
       <c r="H10" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="I10" s="1">
-        <v>0.9</v>
+        <v>1.23</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -2409,22 +2785,22 @@
         <v>71</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="R10" s="1">
         <v>1</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>37</v>
@@ -2442,33 +2818,33 @@
         <v>264</v>
       </c>
     </row>
-    <row r="11" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" s="1" customFormat="1">
       <c r="A11" s="1" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G11" s="1">
-        <v>2300</v>
+        <v>2986</v>
       </c>
       <c r="H11" s="1">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="I11" s="1">
-        <v>0.9</v>
+        <v>1.07</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -2486,22 +2862,22 @@
         <v>71</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="R11" s="1">
         <v>1</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>37</v>
@@ -2519,33 +2895,33 @@
         <v>264</v>
       </c>
     </row>
-    <row r="12" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" s="1" customFormat="1">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>96</v>
       </c>
       <c r="G12" s="1">
-        <v>1940</v>
+        <v>7755</v>
       </c>
       <c r="H12" s="1">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="I12" s="1">
-        <v>0.9</v>
+        <v>1.07</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -2569,16 +2945,16 @@
         <v>34</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="R12" s="1">
         <v>1</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>37</v>
@@ -2596,33 +2972,33 @@
         <v>264</v>
       </c>
     </row>
-    <row r="13" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" s="1" customFormat="1">
       <c r="A13" s="1" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="G13" s="1">
-        <v>283</v>
+        <v>872</v>
       </c>
       <c r="H13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="I13" s="1">
-        <v>4.55</v>
+        <v>1.23</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -2631,75 +3007,75 @@
         <v>1</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>31</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="R13" s="1">
         <v>1</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="V13" s="1" t="s">
         <v>38</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
-    <row r="14" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" s="1" customFormat="1">
       <c r="A14" s="1" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="G14" s="1">
-        <v>556</v>
+        <v>3000</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>4.68</v>
+        <v>1.46</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -2714,69 +3090,69 @@
         <v>31</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>104</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="R14" s="1">
         <v>1</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="V14" s="1" t="s">
         <v>38</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
-    <row r="15" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" s="1" customFormat="1">
       <c r="A15" s="1" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>115</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="G15" s="1">
-        <v>3775</v>
+        <v>1601</v>
       </c>
       <c r="H15" s="1">
         <v>10000</v>
       </c>
       <c r="I15" s="1">
-        <v>1.23</v>
+        <v>1.68</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -2791,25 +3167,25 @@
         <v>31</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="R15" s="1">
         <v>1</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>37</v>
@@ -2827,33 +3203,33 @@
         <v>264</v>
       </c>
     </row>
-    <row r="16" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" s="1" customFormat="1">
       <c r="A16" s="1" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>115</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="G16" s="1">
-        <v>1789</v>
+        <v>2982</v>
       </c>
       <c r="H16" s="1">
         <v>3000</v>
       </c>
       <c r="I16" s="1">
-        <v>1.07</v>
+        <v>1.46</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -2871,13 +3247,13 @@
         <v>71</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="R16" s="1">
         <v>1</v>
@@ -2886,7 +3262,7 @@
         <v>123</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>37</v>
@@ -2904,33 +3280,33 @@
         <v>264</v>
       </c>
     </row>
-    <row r="17" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" s="1" customFormat="1">
       <c r="A17" s="1" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>115</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="G17" s="1">
-        <v>1966</v>
+        <v>2825</v>
       </c>
       <c r="H17" s="1">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="I17" s="1">
-        <v>1.23</v>
+        <v>1.46</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -2948,13 +3324,13 @@
         <v>71</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="R17" s="1">
         <v>1</v>
@@ -2963,7 +3339,7 @@
         <v>123</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="U17" s="1" t="s">
         <v>37</v>
@@ -2981,33 +3357,33 @@
         <v>264</v>
       </c>
     </row>
-    <row r="18" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" s="1" customFormat="1">
       <c r="A18" s="1" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>115</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="G18" s="1">
-        <v>2986</v>
+        <v>4957</v>
       </c>
       <c r="H18" s="1">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="I18" s="1">
-        <v>1.07</v>
+        <v>1.68</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -3025,13 +3401,13 @@
         <v>71</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="R18" s="1">
         <v>1</v>
@@ -3040,7 +3416,7 @@
         <v>123</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="U18" s="1" t="s">
         <v>37</v>
@@ -3058,33 +3434,33 @@
         <v>264</v>
       </c>
     </row>
-    <row r="19" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" s="1" customFormat="1">
       <c r="A19" s="1" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>115</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="G19" s="1">
-        <v>7755</v>
+        <v>5263</v>
       </c>
       <c r="H19" s="1">
         <v>9000</v>
       </c>
       <c r="I19" s="1">
-        <v>1.07</v>
+        <v>2.15</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -3102,13 +3478,13 @@
         <v>71</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>34</v>
+        <v>156</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="R19" s="1">
         <v>1</v>
@@ -3117,7 +3493,7 @@
         <v>123</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>34</v>
+        <v>156</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>37</v>
@@ -3131,37 +3507,40 @@
       <c r="X19" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="Y19" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="AA19" s="2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="20" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" s="1" customFormat="1">
       <c r="A20" s="1" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>115</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>70</v>
+        <v>163</v>
       </c>
       <c r="G20" s="1">
-        <v>872</v>
+        <v>2850</v>
       </c>
       <c r="H20" s="1">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="I20" s="1">
-        <v>1.23</v>
+        <v>2.15</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -3179,13 +3558,13 @@
         <v>71</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>34</v>
+        <v>156</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="R20" s="1">
         <v>1</v>
@@ -3194,7 +3573,7 @@
         <v>123</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>34</v>
+        <v>156</v>
       </c>
       <c r="U20" s="1" t="s">
         <v>37</v>
@@ -3208,37 +3587,40 @@
       <c r="X20" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="Y20" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="AA20" s="2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="21" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" s="1" customFormat="1">
       <c r="A21" s="1" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>115</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="G21" s="1">
-        <v>10577</v>
+        <v>2986</v>
       </c>
       <c r="H21" s="1">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="I21" s="1">
-        <v>1.46</v>
+        <v>2.15</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -3253,25 +3635,25 @@
         <v>31</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>104</v>
+        <v>156</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="R21" s="1">
         <v>1</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>104</v>
+        <v>156</v>
       </c>
       <c r="U21" s="1" t="s">
         <v>37</v>
@@ -3285,37 +3667,40 @@
       <c r="X21" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="Y21" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="AA21" s="2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="22" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" s="1" customFormat="1">
       <c r="A22" s="1" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>115</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="G22" s="1">
-        <v>3000</v>
+        <v>18039</v>
       </c>
       <c r="H22" s="1">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="I22" s="1">
-        <v>1.46</v>
+        <v>2.15</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
@@ -3333,13 +3718,13 @@
         <v>71</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>104</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="R22" s="1">
         <v>1</v>
@@ -3348,7 +3733,7 @@
         <v>123</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>104</v>
+        <v>156</v>
       </c>
       <c r="U22" s="1" t="s">
         <v>37</v>
@@ -3362,37 +3747,40 @@
       <c r="X22" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="Y22" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="AA22" s="2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="23" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" s="1" customFormat="1">
       <c r="A23" s="1" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>115</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="G23" s="1">
-        <v>1601</v>
+        <v>4665</v>
       </c>
       <c r="H23" s="1">
         <v>10000</v>
       </c>
       <c r="I23" s="1">
-        <v>1.68</v>
+        <v>2.27</v>
       </c>
       <c r="J23" s="1">
         <v>0</v>
@@ -3410,22 +3798,22 @@
         <v>71</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>104</v>
+        <v>173</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="R23" s="1">
         <v>1</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>104</v>
+        <v>176</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>37</v>
@@ -3434,42 +3822,42 @@
         <v>38</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>66</v>
+        <v>177</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>67</v>
+        <v>178</v>
       </c>
       <c r="AA23" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
-    <row r="24" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" s="1" customFormat="1">
       <c r="A24" s="1" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>143</v>
+        <v>193</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>144</v>
+        <v>194</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>115</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>145</v>
+        <v>195</v>
       </c>
       <c r="G24" s="1">
-        <v>2982</v>
+        <v>3164</v>
       </c>
       <c r="H24" s="1">
-        <v>3000</v>
+        <v>9990</v>
       </c>
       <c r="I24" s="1">
-        <v>1.46</v>
+        <v>2.72</v>
       </c>
       <c r="J24" s="1">
         <v>0</v>
@@ -3478,7 +3866,7 @@
         <v>1</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>31</v>
@@ -3487,22 +3875,22 @@
         <v>71</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>81</v>
+        <v>196</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>104</v>
+        <v>173</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="R24" s="1">
         <v>1</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>123</v>
+        <v>197</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>104</v>
+        <v>176</v>
       </c>
       <c r="U24" s="1" t="s">
         <v>37</v>
@@ -3511,42 +3899,42 @@
         <v>38</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>66</v>
+        <v>177</v>
       </c>
       <c r="X24" s="1" t="s">
-        <v>67</v>
+        <v>178</v>
       </c>
       <c r="AA24" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
-    <row r="25" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" s="1" customFormat="1">
       <c r="A25" s="1" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>147</v>
+        <v>199</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>115</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="G25" s="1">
-        <v>2825</v>
+        <v>1814</v>
       </c>
       <c r="H25" s="1">
-        <v>9000</v>
+        <v>9990</v>
       </c>
       <c r="I25" s="1">
-        <v>1.46</v>
+        <v>2.72</v>
       </c>
       <c r="J25" s="1">
         <v>0</v>
@@ -3555,7 +3943,7 @@
         <v>1</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>31</v>
@@ -3564,22 +3952,22 @@
         <v>71</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>104</v>
+        <v>173</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="R25" s="1">
         <v>1</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>123</v>
+        <v>175</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>104</v>
+        <v>176</v>
       </c>
       <c r="U25" s="1" t="s">
         <v>37</v>
@@ -3588,273 +3976,282 @@
         <v>38</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>66</v>
+        <v>177</v>
       </c>
       <c r="X25" s="1" t="s">
-        <v>67</v>
+        <v>178</v>
       </c>
       <c r="AA25" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
-    <row r="26" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E26" s="1" t="s">
+    <row r="26" spans="1:28" s="1" customFormat="1">
+      <c r="A26" t="s">
+        <v>209</v>
+      </c>
+      <c r="B26" t="s">
+        <v>210</v>
+      </c>
+      <c r="C26" t="s">
+        <v>240</v>
+      </c>
+      <c r="D26" t="s">
+        <v>241</v>
+      </c>
+      <c r="E26" t="s">
         <v>115</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G26" s="1">
-        <v>4957</v>
-      </c>
-      <c r="H26" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I26" s="1">
-        <v>1.68</v>
-      </c>
-      <c r="J26" s="1">
-        <v>0</v>
-      </c>
-      <c r="K26" s="1">
-        <v>1</v>
-      </c>
-      <c r="L26" s="1" t="s">
+      <c r="F26" t="s">
+        <v>242</v>
+      </c>
+      <c r="G26">
+        <v>568</v>
+      </c>
+      <c r="H26">
+        <v>8700</v>
+      </c>
+      <c r="I26">
+        <v>6.75</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26" t="s">
         <v>45</v>
       </c>
-      <c r="M26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N26" s="1" t="s">
+      <c r="M26" t="s">
+        <v>31</v>
+      </c>
+      <c r="N26" t="s">
         <v>71</v>
       </c>
-      <c r="O26" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="R26" s="1">
-        <v>1</v>
-      </c>
-      <c r="S26" s="1" t="s">
+      <c r="O26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P26" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>216</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26" t="s">
         <v>123</v>
       </c>
-      <c r="T26" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="U26" s="1" t="s">
+      <c r="T26" t="s">
+        <v>218</v>
+      </c>
+      <c r="U26" t="s">
         <v>37</v>
       </c>
-      <c r="V26" s="1" t="s">
+      <c r="V26" t="s">
         <v>38</v>
       </c>
-      <c r="W26" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="X26" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA26" s="2" t="s">
-        <v>264</v>
-      </c>
+      <c r="W26" t="s">
+        <v>219</v>
+      </c>
+      <c r="X26" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y26"/>
+      <c r="Z26"/>
+      <c r="AA26" t="s">
+        <v>266</v>
+      </c>
+      <c r="AB26"/>
     </row>
-    <row r="27" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E27" s="1" t="s">
+    <row r="27" spans="1:28" s="1" customFormat="1">
+      <c r="A27" t="s">
+        <v>243</v>
+      </c>
+      <c r="B27" t="s">
+        <v>210</v>
+      </c>
+      <c r="C27" t="s">
+        <v>244</v>
+      </c>
+      <c r="D27" t="s">
+        <v>245</v>
+      </c>
+      <c r="E27" t="s">
         <v>115</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G27" s="1">
-        <v>33240</v>
-      </c>
-      <c r="H27" s="1">
-        <v>0</v>
-      </c>
-      <c r="I27" s="1">
-        <v>2.15</v>
-      </c>
-      <c r="J27" s="1">
-        <v>0</v>
-      </c>
-      <c r="K27" s="1">
-        <v>1</v>
-      </c>
-      <c r="L27" s="1" t="s">
+      <c r="F27" t="s">
+        <v>246</v>
+      </c>
+      <c r="G27">
+        <v>869</v>
+      </c>
+      <c r="H27">
+        <v>2750</v>
+      </c>
+      <c r="I27">
+        <v>6.75</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27" t="s">
         <v>45</v>
       </c>
-      <c r="M27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="R27" s="1">
-        <v>1</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="T27" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="U27" s="1" t="s">
+      <c r="M27" t="s">
+        <v>31</v>
+      </c>
+      <c r="N27" t="s">
+        <v>71</v>
+      </c>
+      <c r="O27" t="s">
+        <v>77</v>
+      </c>
+      <c r="P27" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>216</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
+      <c r="S27" t="s">
+        <v>217</v>
+      </c>
+      <c r="T27" t="s">
+        <v>218</v>
+      </c>
+      <c r="U27" t="s">
         <v>37</v>
       </c>
-      <c r="V27" s="1" t="s">
+      <c r="V27" t="s">
         <v>38</v>
       </c>
-      <c r="W27" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="X27" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA27" s="2" t="s">
-        <v>264</v>
-      </c>
+      <c r="W27" t="s">
+        <v>219</v>
+      </c>
+      <c r="X27" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y27"/>
+      <c r="Z27"/>
+      <c r="AA27" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="AB27"/>
     </row>
-    <row r="28" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E28" s="1" t="s">
+    <row r="28" spans="1:28" s="1" customFormat="1">
+      <c r="A28" t="s">
+        <v>209</v>
+      </c>
+      <c r="B28" t="s">
+        <v>210</v>
+      </c>
+      <c r="C28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D28" t="s">
+        <v>248</v>
+      </c>
+      <c r="E28" t="s">
         <v>115</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G28" s="1">
-        <v>5263</v>
-      </c>
-      <c r="H28" s="1">
-        <v>9000</v>
-      </c>
-      <c r="I28" s="1">
-        <v>2.15</v>
-      </c>
-      <c r="J28" s="1">
-        <v>0</v>
-      </c>
-      <c r="K28" s="1">
-        <v>1</v>
-      </c>
-      <c r="L28" s="1" t="s">
+      <c r="F28" t="s">
+        <v>249</v>
+      </c>
+      <c r="G28">
+        <v>518</v>
+      </c>
+      <c r="H28">
+        <v>3750</v>
+      </c>
+      <c r="I28">
+        <v>6.75</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28" t="s">
         <v>45</v>
       </c>
-      <c r="M28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N28" s="1" t="s">
+      <c r="M28" t="s">
+        <v>31</v>
+      </c>
+      <c r="N28" t="s">
         <v>71</v>
       </c>
-      <c r="O28" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="R28" s="1">
-        <v>1</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="T28" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="U28" s="1" t="s">
+      <c r="O28" t="s">
+        <v>85</v>
+      </c>
+      <c r="P28" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>216</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="S28" t="s">
+        <v>217</v>
+      </c>
+      <c r="T28" t="s">
+        <v>218</v>
+      </c>
+      <c r="U28" t="s">
         <v>37</v>
       </c>
-      <c r="V28" s="1" t="s">
+      <c r="V28" t="s">
         <v>38</v>
       </c>
-      <c r="W28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="X28" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA28" s="2" t="s">
-        <v>264</v>
-      </c>
+      <c r="W28" t="s">
+        <v>219</v>
+      </c>
+      <c r="X28" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y28"/>
+      <c r="Z28"/>
+      <c r="AA28" t="s">
+        <v>266</v>
+      </c>
+      <c r="AB28"/>
     </row>
-    <row r="29" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" s="1" customFormat="1">
       <c r="A29" s="1" t="s">
-        <v>152</v>
+        <v>24</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>114</v>
+        <v>25</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>161</v>
+        <v>26</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>162</v>
+        <v>27</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>163</v>
+        <v>29</v>
       </c>
       <c r="G29" s="1">
-        <v>2850</v>
+        <v>4632</v>
       </c>
       <c r="H29" s="1">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="I29" s="1">
-        <v>2.15</v>
+        <v>1.54</v>
       </c>
       <c r="J29" s="1">
         <v>0</v>
@@ -3863,31 +4260,31 @@
         <v>1</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>31</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>156</v>
+        <v>34</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>157</v>
+        <v>35</v>
       </c>
       <c r="R29" s="1">
         <v>1</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="U29" s="1" t="s">
         <v>37</v>
@@ -3896,42 +4293,45 @@
         <v>38</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="X29" s="1" t="s">
-        <v>67</v>
+        <v>40</v>
+      </c>
+      <c r="Y29" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="AA29" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
-    <row r="30" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" s="1" customFormat="1">
       <c r="A30" s="1" t="s">
-        <v>152</v>
+        <v>24</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>164</v>
+        <v>42</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>165</v>
+        <v>43</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>166</v>
+        <v>44</v>
       </c>
       <c r="G30" s="1">
-        <v>2986</v>
+        <v>4619</v>
       </c>
       <c r="H30" s="1">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="I30" s="1">
-        <v>2.15</v>
+        <v>1.3</v>
       </c>
       <c r="J30" s="1">
         <v>0</v>
@@ -3946,25 +4346,25 @@
         <v>31</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>156</v>
+        <v>34</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>157</v>
+        <v>35</v>
       </c>
       <c r="R30" s="1">
         <v>1</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="U30" s="1" t="s">
         <v>37</v>
@@ -3973,42 +4373,42 @@
         <v>38</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="X30" s="1" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="AA30" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
-    <row r="31" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28">
       <c r="A31" s="1" t="s">
-        <v>152</v>
+        <v>24</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>167</v>
+        <v>48</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>168</v>
+        <v>49</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>169</v>
+        <v>44</v>
       </c>
       <c r="G31" s="1">
-        <v>18039</v>
+        <v>1197</v>
       </c>
       <c r="H31" s="1">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="I31" s="1">
-        <v>2.15</v>
+        <v>1.26</v>
       </c>
       <c r="J31" s="1">
         <v>0</v>
@@ -4017,31 +4417,31 @@
         <v>1</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>31</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>156</v>
+        <v>34</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>157</v>
+        <v>35</v>
       </c>
       <c r="R31" s="1">
         <v>1</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="U31" s="1" t="s">
         <v>37</v>
@@ -4050,42 +4450,45 @@
         <v>38</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="X31" s="1" t="s">
-        <v>67</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
       <c r="AA31" s="2" t="s">
-        <v>264</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28">
       <c r="A32" s="1" t="s">
-        <v>170</v>
+        <v>98</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>171</v>
+        <v>41</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>179</v>
+        <v>99</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>181</v>
+        <v>102</v>
       </c>
       <c r="G32" s="1">
-        <v>4665</v>
+        <v>283</v>
       </c>
       <c r="H32" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="I32" s="1">
-        <v>2.27</v>
+        <v>4.55</v>
       </c>
       <c r="J32" s="1">
         <v>0</v>
@@ -4094,75 +4497,78 @@
         <v>1</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>31</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>173</v>
+        <v>104</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>174</v>
+        <v>105</v>
       </c>
       <c r="R32" s="1">
         <v>1</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>182</v>
+        <v>106</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>176</v>
+        <v>31</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="V32" s="1" t="s">
         <v>38</v>
       </c>
       <c r="W32" s="1" t="s">
-        <v>177</v>
+        <v>46</v>
       </c>
       <c r="X32" s="1" t="s">
-        <v>178</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
       <c r="AA32" s="2" t="s">
-        <v>265</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="AB32" s="1"/>
     </row>
-    <row r="33" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28">
       <c r="A33" s="1" t="s">
-        <v>170</v>
+        <v>98</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>171</v>
+        <v>41</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>188</v>
+        <v>108</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>189</v>
+        <v>109</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>190</v>
+        <v>102</v>
       </c>
       <c r="G33" s="1">
-        <v>1479</v>
+        <v>556</v>
       </c>
       <c r="H33" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="I33" s="1">
-        <v>2.27</v>
+        <v>4.68</v>
       </c>
       <c r="J33" s="1">
         <v>0</v>
@@ -4177,530 +4583,94 @@
         <v>31</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>191</v>
+        <v>103</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>173</v>
+        <v>104</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>174</v>
+        <v>105</v>
       </c>
       <c r="R33" s="1">
         <v>1</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>192</v>
+        <v>106</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>176</v>
+        <v>31</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="V33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="W33" s="1" t="s">
-        <v>177</v>
+        <v>46</v>
       </c>
       <c r="X33" s="1" t="s">
-        <v>178</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
       <c r="AA33" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G34" s="1">
-        <v>3164</v>
-      </c>
-      <c r="H34" s="1">
-        <v>9990</v>
-      </c>
-      <c r="I34" s="1">
-        <v>2.72</v>
-      </c>
-      <c r="J34" s="1">
-        <v>0</v>
-      </c>
-      <c r="K34" s="1">
-        <v>1</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="P34" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q34" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="R34" s="1">
-        <v>1</v>
-      </c>
-      <c r="S34" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="T34" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="U34" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V34" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="W34" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="X34" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="AA34" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G35" s="1">
-        <v>1814</v>
-      </c>
-      <c r="H35" s="1">
-        <v>9990</v>
-      </c>
-      <c r="I35" s="1">
-        <v>2.72</v>
-      </c>
-      <c r="J35" s="1">
-        <v>0</v>
-      </c>
-      <c r="K35" s="1">
-        <v>1</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N35" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="O35" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="P35" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q35" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="R35" s="1">
-        <v>1</v>
-      </c>
-      <c r="S35" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="T35" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="U35" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V35" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="W35" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="X35" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="AA35" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G36" s="1">
-        <v>832</v>
-      </c>
-      <c r="H36" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I36" s="1">
-        <v>6.55</v>
-      </c>
-      <c r="J36" s="1">
-        <v>0</v>
-      </c>
-      <c r="K36" s="1">
-        <v>1</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q36" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="R36" s="1">
-        <v>1</v>
-      </c>
-      <c r="S36" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="T36" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="U36" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V36" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="W36" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="X36" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="AA36" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>209</v>
-      </c>
-      <c r="B37" t="s">
-        <v>210</v>
-      </c>
-      <c r="C37" t="s">
-        <v>240</v>
-      </c>
-      <c r="D37" t="s">
-        <v>241</v>
-      </c>
-      <c r="E37" t="s">
-        <v>115</v>
-      </c>
-      <c r="F37" t="s">
-        <v>242</v>
-      </c>
-      <c r="G37">
-        <v>568</v>
-      </c>
-      <c r="H37">
-        <v>8700</v>
-      </c>
-      <c r="I37">
-        <v>6.75</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-      <c r="L37" t="s">
-        <v>45</v>
-      </c>
-      <c r="M37" t="s">
-        <v>31</v>
-      </c>
-      <c r="N37" t="s">
-        <v>71</v>
-      </c>
-      <c r="O37" t="s">
-        <v>97</v>
-      </c>
-      <c r="P37" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>216</v>
-      </c>
-      <c r="R37">
-        <v>1</v>
-      </c>
-      <c r="S37" t="s">
-        <v>123</v>
-      </c>
-      <c r="T37" t="s">
-        <v>218</v>
-      </c>
-      <c r="U37" t="s">
-        <v>37</v>
-      </c>
-      <c r="V37" t="s">
-        <v>38</v>
-      </c>
-      <c r="W37" t="s">
-        <v>219</v>
-      </c>
-      <c r="X37" t="s">
-        <v>220</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>243</v>
-      </c>
-      <c r="B38" t="s">
-        <v>210</v>
-      </c>
-      <c r="C38" t="s">
-        <v>244</v>
-      </c>
-      <c r="D38" t="s">
-        <v>245</v>
-      </c>
-      <c r="E38" t="s">
-        <v>115</v>
-      </c>
-      <c r="F38" t="s">
-        <v>246</v>
-      </c>
-      <c r="G38">
-        <v>869</v>
-      </c>
-      <c r="H38">
-        <v>2750</v>
-      </c>
-      <c r="I38">
-        <v>6.75</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>1</v>
-      </c>
-      <c r="L38" t="s">
-        <v>45</v>
-      </c>
-      <c r="M38" t="s">
-        <v>31</v>
-      </c>
-      <c r="N38" t="s">
-        <v>71</v>
-      </c>
-      <c r="O38" t="s">
-        <v>77</v>
-      </c>
-      <c r="P38" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>31</v>
-      </c>
-      <c r="R38">
-        <v>1</v>
-      </c>
-      <c r="S38" t="s">
-        <v>217</v>
-      </c>
-      <c r="T38" t="s">
-        <v>218</v>
-      </c>
-      <c r="U38" t="s">
-        <v>37</v>
-      </c>
-      <c r="V38" t="s">
-        <v>38</v>
-      </c>
-      <c r="W38" t="s">
-        <v>219</v>
-      </c>
-      <c r="X38" t="s">
-        <v>220</v>
-      </c>
-      <c r="AA38" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>209</v>
-      </c>
-      <c r="B39" t="s">
-        <v>210</v>
-      </c>
-      <c r="C39" t="s">
-        <v>247</v>
-      </c>
-      <c r="D39" t="s">
-        <v>248</v>
-      </c>
-      <c r="E39" t="s">
-        <v>115</v>
-      </c>
-      <c r="F39" t="s">
-        <v>249</v>
-      </c>
-      <c r="G39">
-        <v>518</v>
-      </c>
-      <c r="H39">
-        <v>3750</v>
-      </c>
-      <c r="I39">
-        <v>6.75</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>1</v>
-      </c>
-      <c r="L39" t="s">
-        <v>45</v>
-      </c>
-      <c r="M39" t="s">
-        <v>31</v>
-      </c>
-      <c r="N39" t="s">
-        <v>71</v>
-      </c>
-      <c r="O39" t="s">
-        <v>85</v>
-      </c>
-      <c r="P39" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>31</v>
-      </c>
-      <c r="R39">
-        <v>1</v>
-      </c>
-      <c r="S39" t="s">
-        <v>217</v>
-      </c>
-      <c r="T39" t="s">
-        <v>218</v>
-      </c>
-      <c r="U39" t="s">
-        <v>37</v>
-      </c>
-      <c r="V39" t="s">
-        <v>38</v>
-      </c>
-      <c r="W39" t="s">
-        <v>219</v>
-      </c>
-      <c r="X39" t="s">
-        <v>220</v>
-      </c>
-      <c r="AA39" t="s">
-        <v>266</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="AB33" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB15"/>
+  <dimension ref="A1:AB12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="12" max="12" width="11.1640625" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" customWidth="1"/>
+    <col min="15" max="15" width="16.6640625" customWidth="1"/>
+    <col min="16" max="16" width="16.1640625" customWidth="1"/>
+    <col min="17" max="17" width="23.83203125" customWidth="1"/>
+    <col min="18" max="18" width="20.33203125" customWidth="1"/>
+    <col min="19" max="19" width="14.83203125" customWidth="1"/>
+    <col min="20" max="20" width="19" customWidth="1"/>
+    <col min="21" max="21" width="21.5" customWidth="1"/>
+    <col min="22" max="22" width="15.1640625" customWidth="1"/>
+    <col min="23" max="23" width="18.5" customWidth="1"/>
+    <col min="24" max="24" width="21.83203125" customWidth="1"/>
+    <col min="27" max="27" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4786,33 +4756,33 @@
         <v>229</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="G2" s="1">
-        <v>897</v>
+        <v>7057</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>1.44</v>
+        <v>0.9</v>
       </c>
       <c r="J2" s="1">
         <v>0</v>
@@ -4821,28 +4791,28 @@
         <v>1</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="R2" s="1">
         <v>1</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>31</v>
@@ -4851,45 +4821,45 @@
         <v>37</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>267</v>
+        <v>67</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>264</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>230</v>
+        <v>114</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>231</v>
+        <v>119</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>232</v>
+        <v>120</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>233</v>
+        <v>61</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>3775</v>
       </c>
       <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>234</v>
+        <v>10000</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1.23</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -4898,152 +4868,152 @@
         <v>1</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>31</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="R3" s="1">
         <v>1</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>235</v>
+        <v>118</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>37</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>236</v>
+        <v>66</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>271</v>
+        <v>67</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>230</v>
+        <v>114</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>238</v>
+        <v>133</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>239</v>
+        <v>134</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>233</v>
+        <v>135</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>10577</v>
       </c>
       <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>234</v>
+        <v>6000</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1.46</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="R4" s="1">
         <v>1</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>235</v>
+        <v>118</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>37</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>236</v>
+        <v>66</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>271</v>
+        <v>67</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>264</v>
       </c>
     </row>
-    <row r="5" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
-        <v>98</v>
+        <v>152</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="G5" s="1">
-        <v>122</v>
+        <v>33240</v>
       </c>
       <c r="H5" s="1">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>4.76</v>
+        <v>2.15</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -5052,75 +5022,78 @@
         <v>1</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>31</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>104</v>
+        <v>156</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="R5" s="1">
         <v>1</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>31</v>
+        <v>156</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>268</v>
+        <v>67</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>264</v>
       </c>
     </row>
-    <row r="6" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" s="1" customFormat="1">
       <c r="A6" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>115</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G6" s="1">
-        <v>1789</v>
+        <v>1479</v>
       </c>
       <c r="H6" s="1">
-        <v>9990</v>
+        <v>10000</v>
       </c>
       <c r="I6" s="1">
-        <v>2.06</v>
+        <v>2.27</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -5129,16 +5102,16 @@
         <v>1</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>31</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>72</v>
+        <v>191</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>173</v>
@@ -5150,7 +5123,7 @@
         <v>1</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>176</v>
@@ -5159,45 +5132,45 @@
         <v>37</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>269</v>
+        <v>178</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>265</v>
       </c>
     </row>
-    <row r="7" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" s="1" customFormat="1">
       <c r="A7" s="1" t="s">
-        <v>170</v>
+        <v>209</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>115</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="G7" s="1">
-        <v>2135</v>
+        <v>832</v>
       </c>
       <c r="H7" s="1">
-        <v>9990</v>
+        <v>10000</v>
       </c>
       <c r="I7" s="1">
-        <v>2.12</v>
+        <v>6.55</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -5206,75 +5179,78 @@
         <v>1</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>31</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>97</v>
+        <v>214</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>173</v>
+        <v>215</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>174</v>
+        <v>216</v>
       </c>
       <c r="R7" s="1">
         <v>1</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>37</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>187</v>
+        <v>220</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
-    <row r="8" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" s="1" customFormat="1">
       <c r="A8" s="1" t="s">
-        <v>170</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>183</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>203</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>204</v>
+        <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>205</v>
+        <v>29</v>
       </c>
       <c r="G8" s="1">
-        <v>1098</v>
+        <v>4632</v>
       </c>
       <c r="H8" s="1">
-        <v>9990</v>
+        <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>2.12</v>
+        <v>1.54</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -5289,69 +5265,72 @@
         <v>31</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>191</v>
+        <v>33</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>173</v>
+        <v>34</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>174</v>
+        <v>35</v>
       </c>
       <c r="R8" s="1">
         <v>1</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>192</v>
+        <v>36</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>176</v>
+        <v>31</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>37</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>187</v>
+        <v>39</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>269</v>
+        <v>40</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>262</v>
       </c>
     </row>
-    <row r="9" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" s="1" customFormat="1">
       <c r="A9" s="1" t="s">
-        <v>170</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>183</v>
+        <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>206</v>
+        <v>42</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>207</v>
+        <v>43</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>208</v>
+        <v>44</v>
       </c>
       <c r="G9" s="1">
-        <v>666</v>
+        <v>4619</v>
       </c>
       <c r="H9" s="1">
-        <v>9990</v>
+        <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>2.12</v>
+        <v>1.3</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -5360,75 +5339,75 @@
         <v>1</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>196</v>
+        <v>33</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>173</v>
+        <v>34</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>174</v>
+        <v>35</v>
       </c>
       <c r="R9" s="1">
         <v>1</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>197</v>
+        <v>36</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>176</v>
+        <v>31</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>37</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>187</v>
+        <v>46</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>269</v>
+        <v>47</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>263</v>
       </c>
     </row>
-    <row r="10" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28">
       <c r="A10" s="1" t="s">
-        <v>209</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>221</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>222</v>
+        <v>48</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>223</v>
+        <v>49</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>224</v>
+        <v>44</v>
       </c>
       <c r="G10" s="1">
-        <v>106</v>
+        <v>1197</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>6.55</v>
+        <v>1.26</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -5443,429 +5422,1784 @@
         <v>31</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>214</v>
+        <v>33</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>215</v>
+        <v>34</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>216</v>
+        <v>35</v>
       </c>
       <c r="R10" s="1">
         <v>1</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>217</v>
+        <v>36</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>218</v>
+        <v>31</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>37</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>225</v>
+        <v>46</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="AA10" s="1" t="s">
-        <v>270</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>209</v>
-      </c>
-      <c r="B11" t="s">
-        <v>221</v>
-      </c>
-      <c r="C11" t="s">
-        <v>222</v>
-      </c>
-      <c r="D11" t="s">
-        <v>223</v>
-      </c>
-      <c r="E11" t="s">
-        <v>115</v>
-      </c>
-      <c r="F11" t="s">
-        <v>224</v>
-      </c>
-      <c r="G11">
-        <v>306</v>
-      </c>
-      <c r="H11">
-        <v>1100</v>
-      </c>
-      <c r="I11">
-        <v>6.55</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11" t="s">
+    <row r="11" spans="1:28">
+      <c r="A11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" s="1">
+        <v>283</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>4.55</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M11" t="s">
-        <v>31</v>
-      </c>
-      <c r="N11" t="s">
-        <v>62</v>
-      </c>
-      <c r="O11" t="s">
-        <v>214</v>
-      </c>
-      <c r="P11" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>216</v>
-      </c>
-      <c r="R11">
-        <v>1</v>
-      </c>
-      <c r="S11" t="s">
-        <v>217</v>
-      </c>
-      <c r="T11" t="s">
-        <v>218</v>
-      </c>
-      <c r="U11" t="s">
-        <v>37</v>
-      </c>
-      <c r="V11" t="s">
-        <v>54</v>
-      </c>
-      <c r="W11" t="s">
-        <v>225</v>
-      </c>
-      <c r="X11" t="s">
-        <v>225</v>
-      </c>
-      <c r="AA11" s="1" t="s">
-        <v>270</v>
-      </c>
+      <c r="M11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="R11" s="1">
+        <v>1</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>209</v>
-      </c>
-      <c r="B12" t="s">
-        <v>221</v>
-      </c>
-      <c r="C12" t="s">
-        <v>250</v>
-      </c>
-      <c r="D12" t="s">
-        <v>251</v>
-      </c>
-      <c r="E12" t="s">
-        <v>115</v>
-      </c>
-      <c r="F12" t="s">
-        <v>252</v>
-      </c>
-      <c r="G12">
-        <v>415</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>6.55</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N12" t="s">
-        <v>71</v>
-      </c>
-      <c r="O12" t="s">
-        <v>97</v>
-      </c>
-      <c r="P12" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>216</v>
-      </c>
-      <c r="R12">
-        <v>1</v>
-      </c>
-      <c r="S12" t="s">
-        <v>123</v>
-      </c>
-      <c r="T12" t="s">
-        <v>218</v>
-      </c>
-      <c r="U12" t="s">
-        <v>37</v>
-      </c>
-      <c r="V12" t="s">
-        <v>54</v>
-      </c>
-      <c r="W12" t="s">
-        <v>225</v>
-      </c>
-      <c r="X12" t="s">
-        <v>225</v>
-      </c>
-      <c r="AA12" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>209</v>
-      </c>
-      <c r="B13" t="s">
-        <v>221</v>
-      </c>
-      <c r="C13" t="s">
-        <v>253</v>
-      </c>
-      <c r="D13" t="s">
-        <v>254</v>
-      </c>
-      <c r="E13" t="s">
-        <v>115</v>
-      </c>
-      <c r="F13" t="s">
-        <v>255</v>
-      </c>
-      <c r="G13">
-        <v>212</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>6.55</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13" t="s">
-        <v>30</v>
-      </c>
-      <c r="M13" t="s">
-        <v>31</v>
-      </c>
-      <c r="N13" t="s">
-        <v>71</v>
-      </c>
-      <c r="O13" t="s">
-        <v>77</v>
-      </c>
-      <c r="P13" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>31</v>
-      </c>
-      <c r="R13">
-        <v>1</v>
-      </c>
-      <c r="S13" t="s">
-        <v>217</v>
-      </c>
-      <c r="T13" t="s">
-        <v>218</v>
-      </c>
-      <c r="U13" t="s">
-        <v>37</v>
-      </c>
-      <c r="V13" t="s">
-        <v>54</v>
-      </c>
-      <c r="W13" t="s">
-        <v>225</v>
-      </c>
-      <c r="X13" t="s">
-        <v>225</v>
-      </c>
-      <c r="AA13" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>209</v>
-      </c>
-      <c r="B14" t="s">
-        <v>221</v>
-      </c>
-      <c r="C14" t="s">
-        <v>256</v>
-      </c>
-      <c r="D14" t="s">
-        <v>257</v>
-      </c>
-      <c r="E14" t="s">
-        <v>115</v>
-      </c>
-      <c r="F14" t="s">
-        <v>258</v>
-      </c>
-      <c r="G14">
-        <v>140</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>6.55</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14" t="s">
-        <v>30</v>
-      </c>
-      <c r="M14" t="s">
-        <v>31</v>
-      </c>
-      <c r="N14" t="s">
-        <v>71</v>
-      </c>
-      <c r="O14" t="s">
-        <v>85</v>
-      </c>
-      <c r="P14" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>31</v>
-      </c>
-      <c r="R14">
-        <v>1</v>
-      </c>
-      <c r="S14" t="s">
-        <v>217</v>
-      </c>
-      <c r="T14" t="s">
-        <v>218</v>
-      </c>
-      <c r="U14" t="s">
-        <v>37</v>
-      </c>
-      <c r="V14" t="s">
-        <v>54</v>
-      </c>
-      <c r="W14" t="s">
-        <v>225</v>
-      </c>
-      <c r="X14" t="s">
-        <v>225</v>
-      </c>
-      <c r="AA14" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>209</v>
-      </c>
-      <c r="B15" t="s">
-        <v>221</v>
-      </c>
-      <c r="C15" t="s">
-        <v>259</v>
-      </c>
-      <c r="D15" t="s">
-        <v>260</v>
-      </c>
-      <c r="E15" t="s">
-        <v>115</v>
-      </c>
-      <c r="F15" t="s">
-        <v>261</v>
-      </c>
-      <c r="G15">
-        <v>139</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>6.55</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" t="s">
-        <v>31</v>
-      </c>
-      <c r="N15" t="s">
-        <v>71</v>
-      </c>
-      <c r="O15" t="s">
-        <v>89</v>
-      </c>
-      <c r="P15" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>31</v>
-      </c>
-      <c r="R15">
-        <v>1</v>
-      </c>
-      <c r="S15" t="s">
-        <v>217</v>
-      </c>
-      <c r="T15" t="s">
-        <v>218</v>
-      </c>
-      <c r="U15" t="s">
-        <v>37</v>
-      </c>
-      <c r="V15" t="s">
-        <v>54</v>
-      </c>
-      <c r="W15" t="s">
-        <v>225</v>
-      </c>
-      <c r="X15" t="s">
-        <v>225</v>
-      </c>
-      <c r="AA15" s="1" t="s">
-        <v>270</v>
-      </c>
+    <row r="12" spans="1:28">
+      <c r="A12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" s="1">
+        <v>556</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>4.68</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="R12" s="1">
+        <v>1</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" customWidth="1"/>
+    <col min="14" max="14" width="25.33203125" customWidth="1"/>
+    <col min="15" max="16" width="16.33203125" customWidth="1"/>
+    <col min="17" max="17" width="24" customWidth="1"/>
+    <col min="18" max="18" width="20.33203125" customWidth="1"/>
+    <col min="19" max="19" width="14.83203125" customWidth="1"/>
+    <col min="20" max="20" width="19.1640625" customWidth="1"/>
+    <col min="21" max="21" width="21.5" customWidth="1"/>
+    <col min="22" max="22" width="15.33203125" customWidth="1"/>
+    <col min="23" max="23" width="14.83203125" customWidth="1"/>
+    <col min="24" max="24" width="22" customWidth="1"/>
+    <col min="27" max="27" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" s="1" customFormat="1">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="1">
+        <v>1</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" s="1" customFormat="1">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" s="1">
+        <v>1</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" s="1" customFormat="1">
+      <c r="A4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1789</v>
+      </c>
+      <c r="H4" s="1">
+        <v>9990</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2.06</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="R4" s="1">
+        <v>1</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" s="1" customFormat="1">
+      <c r="A5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2135</v>
+      </c>
+      <c r="H5" s="1">
+        <v>9990</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2.12</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="R5" s="1">
+        <v>1</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" s="1" customFormat="1">
+      <c r="A6" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G6" s="1">
+        <v>666</v>
+      </c>
+      <c r="H6" s="1">
+        <v>9990</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2.12</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" s="1" customFormat="1">
+      <c r="A7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D7" t="s">
+        <v>251</v>
+      </c>
+      <c r="E7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G7">
+        <v>415</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>6.55</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" t="s">
+        <v>71</v>
+      </c>
+      <c r="O7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>216</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7" t="s">
+        <v>123</v>
+      </c>
+      <c r="T7" t="s">
+        <v>218</v>
+      </c>
+      <c r="U7" t="s">
+        <v>37</v>
+      </c>
+      <c r="V7" t="s">
+        <v>54</v>
+      </c>
+      <c r="W7" t="s">
+        <v>225</v>
+      </c>
+      <c r="X7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8" t="s">
+        <v>253</v>
+      </c>
+      <c r="D8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" t="s">
+        <v>255</v>
+      </c>
+      <c r="G8">
+        <v>212</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>6.55</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" t="s">
+        <v>71</v>
+      </c>
+      <c r="O8" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>216</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8" t="s">
+        <v>217</v>
+      </c>
+      <c r="T8" t="s">
+        <v>218</v>
+      </c>
+      <c r="U8" t="s">
+        <v>37</v>
+      </c>
+      <c r="V8" t="s">
+        <v>54</v>
+      </c>
+      <c r="W8" t="s">
+        <v>225</v>
+      </c>
+      <c r="X8" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C9" t="s">
+        <v>256</v>
+      </c>
+      <c r="D9" t="s">
+        <v>257</v>
+      </c>
+      <c r="E9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" t="s">
+        <v>258</v>
+      </c>
+      <c r="G9">
+        <v>140</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>6.55</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" t="s">
+        <v>71</v>
+      </c>
+      <c r="O9" t="s">
+        <v>85</v>
+      </c>
+      <c r="P9" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>216</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9" t="s">
+        <v>217</v>
+      </c>
+      <c r="T9" t="s">
+        <v>218</v>
+      </c>
+      <c r="U9" t="s">
+        <v>37</v>
+      </c>
+      <c r="V9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W9" t="s">
+        <v>225</v>
+      </c>
+      <c r="X9" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>226</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C10" t="s">
+        <v>259</v>
+      </c>
+      <c r="D10" t="s">
+        <v>260</v>
+      </c>
+      <c r="E10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" t="s">
+        <v>261</v>
+      </c>
+      <c r="G10">
+        <v>139</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>6.55</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10" t="s">
+        <v>71</v>
+      </c>
+      <c r="O10" t="s">
+        <v>89</v>
+      </c>
+      <c r="P10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>216</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10" t="s">
+        <v>217</v>
+      </c>
+      <c r="T10" t="s">
+        <v>218</v>
+      </c>
+      <c r="U10" t="s">
+        <v>37</v>
+      </c>
+      <c r="V10" t="s">
+        <v>54</v>
+      </c>
+      <c r="W10" t="s">
+        <v>225</v>
+      </c>
+      <c r="X10" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="1">
+        <v>897</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1.44</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R11" s="1">
+        <v>1</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB11" s="1"/>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="A12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" s="1">
+        <v>122</v>
+      </c>
+      <c r="H12" s="1">
+        <v>400</v>
+      </c>
+      <c r="I12" s="1">
+        <v>4.76</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="R12" s="1">
+        <v>1</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB6"/>
+  <sheetViews>
+    <sheetView topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="N5" sqref="A5:XFD13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" customWidth="1"/>
+    <col min="14" max="14" width="25.33203125" customWidth="1"/>
+    <col min="15" max="16" width="16.33203125" customWidth="1"/>
+    <col min="17" max="17" width="24" customWidth="1"/>
+    <col min="18" max="18" width="20.33203125" customWidth="1"/>
+    <col min="19" max="19" width="14.83203125" customWidth="1"/>
+    <col min="20" max="20" width="19.1640625" customWidth="1"/>
+    <col min="21" max="21" width="21.5" customWidth="1"/>
+    <col min="22" max="22" width="15.33203125" customWidth="1"/>
+    <col min="23" max="23" width="14.83203125" customWidth="1"/>
+    <col min="24" max="24" width="22" customWidth="1"/>
+    <col min="27" max="27" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" s="1" customFormat="1">
+      <c r="A2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1098</v>
+      </c>
+      <c r="H2" s="1">
+        <v>9990</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2.12</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="R2" s="1">
+        <v>1</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" s="1" customFormat="1">
+      <c r="A3" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G3" s="1">
+        <v>106</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>6.55</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="R3" s="1">
+        <v>1</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" s="1" customFormat="1">
+      <c r="A4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" t="s">
+        <v>224</v>
+      </c>
+      <c r="G4">
+        <v>306</v>
+      </c>
+      <c r="H4">
+        <v>1100</v>
+      </c>
+      <c r="I4">
+        <v>6.55</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
+        <v>214</v>
+      </c>
+      <c r="P4" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>216</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4" t="s">
+        <v>217</v>
+      </c>
+      <c r="T4" t="s">
+        <v>218</v>
+      </c>
+      <c r="U4" t="s">
+        <v>37</v>
+      </c>
+      <c r="V4" t="s">
+        <v>54</v>
+      </c>
+      <c r="W4" t="s">
+        <v>225</v>
+      </c>
+      <c r="X4" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z4"/>
+      <c r="AA4" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB4"/>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="1">
+        <v>897</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1.44</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R5" s="1">
+        <v>1</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB5" s="1"/>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G6" s="1">
+        <v>122</v>
+      </c>
+      <c r="H6" s="1">
+        <v>400</v>
+      </c>
+      <c r="I6" s="1">
+        <v>4.76</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="AB6" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Digikey/Regulators.xlsx
+++ b/Digikey/Regulators.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25317"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="2"/>
+    <workbookView xWindow="1420" yWindow="640" windowWidth="49780" windowHeight="15560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Regulators-Fixed-SMD" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="278">
   <si>
     <t>Datasheets</t>
   </si>
@@ -850,6 +850,12 @@
   </si>
   <si>
     <t>TH-DIP8</t>
+  </si>
+  <si>
+    <t>SMD-MSOP8</t>
+  </si>
+  <si>
+    <t>SMD-SOIC8-JEDEC</t>
   </si>
 </sst>
 </file>
@@ -1311,7 +1317,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="74">
+  <cellStyleXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1386,13 +1392,87 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="74">
+  <cellStyles count="148">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1437,6 +1517,43 @@
     <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="147" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -1458,6 +1575,43 @@
     <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="140" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="142" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="144" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="146" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1585,7 +1739,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A1:AB33" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A1:AB33" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A1:AB33"/>
   <sortState ref="A2:AB39">
     <sortCondition ref="N1:N39"/>
@@ -1625,10 +1779,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AB12" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AB12" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A1:AB12"/>
-  <sortState ref="A2:AB39">
-    <sortCondition ref="N1:N39"/>
+  <sortState ref="A2:AB12">
+    <sortCondition descending="1" ref="Y1:Y12"/>
   </sortState>
   <tableColumns count="28">
     <tableColumn id="1" name="Datasheets"/>
@@ -1665,7 +1819,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table36" displayName="Table36" ref="A1:AB12" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table36" displayName="Table36" ref="A1:AB12" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:AB12"/>
   <sortState ref="A2:AB15">
     <sortCondition ref="N1:N15"/>
@@ -1697,7 +1851,7 @@
     <tableColumn id="24" name="Supplier Device Package"/>
     <tableColumn id="25" name="Stock"/>
     <tableColumn id="26" name="Query"/>
-    <tableColumn id="27" name="Package" dataDxfId="1"/>
+    <tableColumn id="27" name="Package" dataDxfId="2"/>
     <tableColumn id="28" name="Device"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1705,7 +1859,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:AB6" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:AB6" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:AB6"/>
   <sortState ref="A2:AB15">
     <sortCondition ref="N1:N15"/>
@@ -1737,7 +1891,7 @@
     <tableColumn id="24" name="Supplier Device Package"/>
     <tableColumn id="25" name="Stock"/>
     <tableColumn id="26" name="Query"/>
-    <tableColumn id="27" name="Package" dataDxfId="4"/>
+    <tableColumn id="27" name="Package" dataDxfId="0"/>
     <tableColumn id="28" name="Device"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1999,7 +2153,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2009,8 +2163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB33"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2019,7 +2173,7 @@
     <col min="3" max="3" width="19.83203125" customWidth="1"/>
     <col min="4" max="4" width="24.1640625" customWidth="1"/>
     <col min="5" max="5" width="14.1640625" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" customWidth="1"/>
     <col min="7" max="7" width="17.5" customWidth="1"/>
     <col min="8" max="8" width="13.83203125" customWidth="1"/>
     <col min="9" max="9" width="15.6640625" customWidth="1"/>
@@ -4298,9 +4452,6 @@
       <c r="X29" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Y29" s="1" t="s">
-        <v>226</v>
-      </c>
       <c r="AA29" s="2" t="s">
         <v>262</v>
       </c>
@@ -4640,8 +4791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB12"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AB5" sqref="AB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4656,7 +4807,7 @@
     <col min="9" max="9" width="15.6640625" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
     <col min="12" max="12" width="11.1640625" customWidth="1"/>
-    <col min="14" max="14" width="18.33203125" customWidth="1"/>
+    <col min="14" max="14" width="22.5" customWidth="1"/>
     <col min="15" max="15" width="16.6640625" customWidth="1"/>
     <col min="16" max="16" width="16.1640625" customWidth="1"/>
     <col min="17" max="17" width="23.83203125" customWidth="1"/>
@@ -4665,7 +4816,7 @@
     <col min="20" max="20" width="19" customWidth="1"/>
     <col min="21" max="21" width="21.5" customWidth="1"/>
     <col min="22" max="22" width="15.1640625" customWidth="1"/>
-    <col min="23" max="23" width="18.5" customWidth="1"/>
+    <col min="23" max="23" width="46.83203125" customWidth="1"/>
     <col min="24" max="24" width="21.83203125" customWidth="1"/>
     <col min="27" max="27" width="9.83203125" customWidth="1"/>
   </cols>
@@ -4758,31 +4909,31 @@
     </row>
     <row r="2" spans="1:28" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>152</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>59</v>
+        <v>153</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>60</v>
+        <v>154</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>61</v>
+        <v>155</v>
       </c>
       <c r="G2" s="1">
-        <v>7057</v>
+        <v>33240</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>0.9</v>
+        <v>2.15</v>
       </c>
       <c r="J2" s="1">
         <v>0</v>
@@ -4800,22 +4951,22 @@
         <v>62</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>34</v>
+        <v>156</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>64</v>
+        <v>157</v>
       </c>
       <c r="R2" s="1">
         <v>1</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>31</v>
+        <v>156</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>37</v>
@@ -4835,31 +4986,31 @@
     </row>
     <row r="3" spans="1:28" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>113</v>
+        <v>209</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>114</v>
+        <v>210</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>119</v>
+        <v>211</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>120</v>
+        <v>212</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>115</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>61</v>
+        <v>213</v>
       </c>
       <c r="G3" s="1">
-        <v>3775</v>
+        <v>832</v>
       </c>
       <c r="H3" s="1">
         <v>10000</v>
       </c>
       <c r="I3" s="1">
-        <v>1.23</v>
+        <v>6.55</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -4877,22 +5028,22 @@
         <v>62</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>116</v>
+        <v>214</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>34</v>
+        <v>215</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>117</v>
+        <v>216</v>
       </c>
       <c r="R3" s="1">
         <v>1</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>118</v>
+        <v>217</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>34</v>
+        <v>218</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>37</v>
@@ -4901,42 +5052,42 @@
         <v>38</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>66</v>
+        <v>219</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>264</v>
+        <v>220</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:28" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
-        <v>132</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>114</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>133</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>134</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="G4" s="1">
-        <v>10577</v>
+        <v>4632</v>
       </c>
       <c r="H4" s="1">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -4945,31 +5096,31 @@
         <v>1</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>136</v>
+        <v>35</v>
       </c>
       <c r="R4" s="1">
         <v>1</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>37</v>
@@ -4978,42 +5129,48 @@
         <v>38</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>67</v>
+        <v>40</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:28" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
-        <v>152</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>153</v>
+        <v>42</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>155</v>
+        <v>44</v>
       </c>
       <c r="G5" s="1">
-        <v>33240</v>
+        <v>4619</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>2.15</v>
+        <v>1.3</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -5028,25 +5185,25 @@
         <v>31</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>156</v>
+        <v>34</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>157</v>
+        <v>35</v>
       </c>
       <c r="R5" s="1">
         <v>1</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>37</v>
@@ -5055,45 +5212,48 @@
         <v>38</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>226</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:28" s="1" customFormat="1">
       <c r="A6" s="1" t="s">
-        <v>170</v>
+        <v>57</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>171</v>
+        <v>58</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>188</v>
+        <v>59</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>189</v>
+        <v>60</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>190</v>
+        <v>61</v>
       </c>
       <c r="G6" s="1">
-        <v>1479</v>
+        <v>7057</v>
       </c>
       <c r="H6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>2.27</v>
+        <v>0.9</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -5111,22 +5271,22 @@
         <v>62</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>191</v>
+        <v>63</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>173</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>174</v>
+        <v>64</v>
       </c>
       <c r="R6" s="1">
         <v>1</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>192</v>
+        <v>65</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>176</v>
+        <v>31</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>37</v>
@@ -5135,42 +5295,42 @@
         <v>38</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>177</v>
+        <v>66</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>178</v>
+        <v>67</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:28" s="1" customFormat="1">
       <c r="A7" s="1" t="s">
-        <v>209</v>
+        <v>113</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>210</v>
+        <v>114</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>211</v>
+        <v>119</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>212</v>
+        <v>120</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>115</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>213</v>
+        <v>61</v>
       </c>
       <c r="G7" s="1">
-        <v>832</v>
+        <v>3775</v>
       </c>
       <c r="H7" s="1">
         <v>10000</v>
       </c>
       <c r="I7" s="1">
-        <v>6.55</v>
+        <v>1.23</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -5188,22 +5348,22 @@
         <v>62</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>214</v>
+        <v>116</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>215</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>216</v>
+        <v>117</v>
       </c>
       <c r="R7" s="1">
         <v>1</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>217</v>
+        <v>118</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>218</v>
+        <v>34</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>37</v>
@@ -5212,45 +5372,42 @@
         <v>38</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>219</v>
+        <v>66</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>266</v>
+        <v>67</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:28" s="1" customFormat="1">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>114</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>133</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="G8" s="1">
-        <v>4632</v>
+        <v>10577</v>
       </c>
       <c r="H8" s="1">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="I8" s="1">
-        <v>1.54</v>
+        <v>1.46</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -5259,31 +5416,31 @@
         <v>1</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>31</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>33</v>
+        <v>116</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="R8" s="1">
         <v>1</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>37</v>
@@ -5292,45 +5449,42 @@
         <v>38</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>226</v>
+        <v>67</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:28" s="1" customFormat="1">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>170</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>171</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>188</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>43</v>
+        <v>189</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>44</v>
+        <v>190</v>
       </c>
       <c r="G9" s="1">
-        <v>4619</v>
+        <v>1479</v>
       </c>
       <c r="H9" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="I9" s="1">
-        <v>1.3</v>
+        <v>2.27</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -5345,25 +5499,25 @@
         <v>31</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>33</v>
+        <v>191</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>34</v>
+        <v>173</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>35</v>
+        <v>174</v>
       </c>
       <c r="R9" s="1">
         <v>1</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>36</v>
+        <v>192</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>31</v>
+        <v>176</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>37</v>
@@ -5372,13 +5526,13 @@
         <v>38</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>46</v>
+        <v>177</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -5639,8 +5793,1026 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="Y14" sqref="Y14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" customWidth="1"/>
+    <col min="14" max="14" width="25.33203125" customWidth="1"/>
+    <col min="15" max="16" width="16.33203125" customWidth="1"/>
+    <col min="17" max="17" width="24" customWidth="1"/>
+    <col min="18" max="18" width="20.33203125" customWidth="1"/>
+    <col min="19" max="19" width="14.83203125" customWidth="1"/>
+    <col min="20" max="20" width="19.1640625" customWidth="1"/>
+    <col min="21" max="21" width="21.5" customWidth="1"/>
+    <col min="22" max="22" width="15.33203125" customWidth="1"/>
+    <col min="23" max="23" width="14.83203125" customWidth="1"/>
+    <col min="24" max="24" width="22" customWidth="1"/>
+    <col min="27" max="27" width="41.33203125" customWidth="1"/>
+    <col min="28" max="28" width="41" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" s="1" customFormat="1">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="1">
+        <v>1</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" s="1" customFormat="1">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" s="1">
+        <v>1</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" s="1" customFormat="1">
+      <c r="A4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1789</v>
+      </c>
+      <c r="H4" s="1">
+        <v>9990</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2.06</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="R4" s="1">
+        <v>1</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" s="1" customFormat="1">
+      <c r="A5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2135</v>
+      </c>
+      <c r="H5" s="1">
+        <v>9990</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2.12</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="R5" s="1">
+        <v>1</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" s="1" customFormat="1">
+      <c r="A6" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G6" s="1">
+        <v>666</v>
+      </c>
+      <c r="H6" s="1">
+        <v>9990</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2.12</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" s="1" customFormat="1">
+      <c r="A7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D7" t="s">
+        <v>251</v>
+      </c>
+      <c r="E7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G7">
+        <v>415</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>6.55</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" t="s">
+        <v>71</v>
+      </c>
+      <c r="O7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>216</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7" t="s">
+        <v>123</v>
+      </c>
+      <c r="T7" t="s">
+        <v>218</v>
+      </c>
+      <c r="U7" t="s">
+        <v>37</v>
+      </c>
+      <c r="V7" t="s">
+        <v>54</v>
+      </c>
+      <c r="W7" t="s">
+        <v>225</v>
+      </c>
+      <c r="X7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8" t="s">
+        <v>253</v>
+      </c>
+      <c r="D8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" t="s">
+        <v>255</v>
+      </c>
+      <c r="G8">
+        <v>212</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>6.55</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" t="s">
+        <v>71</v>
+      </c>
+      <c r="O8" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>216</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8" t="s">
+        <v>217</v>
+      </c>
+      <c r="T8" t="s">
+        <v>218</v>
+      </c>
+      <c r="U8" t="s">
+        <v>37</v>
+      </c>
+      <c r="V8" t="s">
+        <v>54</v>
+      </c>
+      <c r="W8" t="s">
+        <v>225</v>
+      </c>
+      <c r="X8" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C9" t="s">
+        <v>256</v>
+      </c>
+      <c r="D9" t="s">
+        <v>257</v>
+      </c>
+      <c r="E9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" t="s">
+        <v>258</v>
+      </c>
+      <c r="G9">
+        <v>140</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>6.55</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" t="s">
+        <v>71</v>
+      </c>
+      <c r="O9" t="s">
+        <v>85</v>
+      </c>
+      <c r="P9" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>216</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9" t="s">
+        <v>217</v>
+      </c>
+      <c r="T9" t="s">
+        <v>218</v>
+      </c>
+      <c r="U9" t="s">
+        <v>37</v>
+      </c>
+      <c r="V9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W9" t="s">
+        <v>225</v>
+      </c>
+      <c r="X9" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C10" t="s">
+        <v>259</v>
+      </c>
+      <c r="D10" t="s">
+        <v>260</v>
+      </c>
+      <c r="E10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" t="s">
+        <v>261</v>
+      </c>
+      <c r="G10">
+        <v>139</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>6.55</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10" t="s">
+        <v>71</v>
+      </c>
+      <c r="O10" t="s">
+        <v>89</v>
+      </c>
+      <c r="P10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>216</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10" t="s">
+        <v>217</v>
+      </c>
+      <c r="T10" t="s">
+        <v>218</v>
+      </c>
+      <c r="U10" t="s">
+        <v>37</v>
+      </c>
+      <c r="V10" t="s">
+        <v>54</v>
+      </c>
+      <c r="W10" t="s">
+        <v>225</v>
+      </c>
+      <c r="X10" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="1">
+        <v>897</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1.44</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R11" s="1">
+        <v>1</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB11" s="1"/>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="A12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" s="1">
+        <v>122</v>
+      </c>
+      <c r="H12" s="1">
+        <v>400</v>
+      </c>
+      <c r="I12" s="1">
+        <v>4.76</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="R12" s="1">
+        <v>1</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB6"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="AB5" sqref="AB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5756,31 +6928,31 @@
     </row>
     <row r="2" spans="1:28" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>170</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>230</v>
+        <v>183</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>1098</v>
       </c>
       <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>234</v>
+        <v>9990</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2.12</v>
       </c>
       <c r="J2" s="1">
         <v>0</v>
@@ -5795,25 +6967,25 @@
         <v>31</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>72</v>
+        <v>191</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>34</v>
+        <v>173</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>35</v>
+        <v>174</v>
       </c>
       <c r="R2" s="1">
         <v>1</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>235</v>
+        <v>192</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>31</v>
+        <v>176</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>37</v>
@@ -5822,1046 +6994,10 @@
         <v>54</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" s="1" customFormat="1">
-      <c r="A3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>1000</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="R3" s="1">
-        <v>1</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" s="1" customFormat="1">
-      <c r="A4" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1789</v>
-      </c>
-      <c r="H4" s="1">
-        <v>9990</v>
-      </c>
-      <c r="I4" s="1">
-        <v>2.06</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="R4" s="1">
-        <v>1</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" s="1" customFormat="1">
-      <c r="A5" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2135</v>
-      </c>
-      <c r="H5" s="1">
-        <v>9990</v>
-      </c>
-      <c r="I5" s="1">
-        <v>2.12</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>1</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="R5" s="1">
-        <v>1</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" s="1" customFormat="1">
-      <c r="A6" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G6" s="1">
-        <v>666</v>
-      </c>
-      <c r="H6" s="1">
-        <v>9990</v>
-      </c>
-      <c r="I6" s="1">
-        <v>2.12</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="R6" s="1">
-        <v>1</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" s="1" customFormat="1">
-      <c r="A7" t="s">
-        <v>209</v>
-      </c>
-      <c r="B7" t="s">
-        <v>221</v>
-      </c>
-      <c r="C7" t="s">
-        <v>250</v>
-      </c>
-      <c r="D7" t="s">
-        <v>251</v>
-      </c>
-      <c r="E7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G7">
-        <v>415</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>6.55</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" t="s">
-        <v>31</v>
-      </c>
-      <c r="N7" t="s">
-        <v>71</v>
-      </c>
-      <c r="O7" t="s">
-        <v>97</v>
-      </c>
-      <c r="P7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>216</v>
-      </c>
-      <c r="R7">
-        <v>1</v>
-      </c>
-      <c r="S7" t="s">
-        <v>123</v>
-      </c>
-      <c r="T7" t="s">
-        <v>218</v>
-      </c>
-      <c r="U7" t="s">
-        <v>37</v>
-      </c>
-      <c r="V7" t="s">
-        <v>54</v>
-      </c>
-      <c r="W7" t="s">
-        <v>225</v>
-      </c>
-      <c r="X7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Y7"/>
-      <c r="Z7"/>
-      <c r="AA7" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28">
-      <c r="A8" t="s">
-        <v>209</v>
-      </c>
-      <c r="B8" t="s">
-        <v>221</v>
-      </c>
-      <c r="C8" t="s">
-        <v>253</v>
-      </c>
-      <c r="D8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E8" t="s">
-        <v>115</v>
-      </c>
-      <c r="F8" t="s">
-        <v>255</v>
-      </c>
-      <c r="G8">
-        <v>212</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>6.55</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M8" t="s">
-        <v>31</v>
-      </c>
-      <c r="N8" t="s">
-        <v>71</v>
-      </c>
-      <c r="O8" t="s">
-        <v>77</v>
-      </c>
-      <c r="P8" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>216</v>
-      </c>
-      <c r="R8">
-        <v>1</v>
-      </c>
-      <c r="S8" t="s">
-        <v>217</v>
-      </c>
-      <c r="T8" t="s">
-        <v>218</v>
-      </c>
-      <c r="U8" t="s">
-        <v>37</v>
-      </c>
-      <c r="V8" t="s">
-        <v>54</v>
-      </c>
-      <c r="W8" t="s">
-        <v>225</v>
-      </c>
-      <c r="X8" t="s">
-        <v>225</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28">
-      <c r="A9" t="s">
-        <v>209</v>
-      </c>
-      <c r="B9" t="s">
-        <v>221</v>
-      </c>
-      <c r="C9" t="s">
-        <v>256</v>
-      </c>
-      <c r="D9" t="s">
-        <v>257</v>
-      </c>
-      <c r="E9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F9" t="s">
-        <v>258</v>
-      </c>
-      <c r="G9">
-        <v>140</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>6.55</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N9" t="s">
-        <v>71</v>
-      </c>
-      <c r="O9" t="s">
-        <v>85</v>
-      </c>
-      <c r="P9" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>216</v>
-      </c>
-      <c r="R9">
-        <v>1</v>
-      </c>
-      <c r="S9" t="s">
-        <v>217</v>
-      </c>
-      <c r="T9" t="s">
-        <v>218</v>
-      </c>
-      <c r="U9" t="s">
-        <v>37</v>
-      </c>
-      <c r="V9" t="s">
-        <v>54</v>
-      </c>
-      <c r="W9" t="s">
-        <v>225</v>
-      </c>
-      <c r="X9" t="s">
-        <v>225</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>226</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28">
-      <c r="A10" t="s">
-        <v>209</v>
-      </c>
-      <c r="B10" t="s">
-        <v>221</v>
-      </c>
-      <c r="C10" t="s">
-        <v>259</v>
-      </c>
-      <c r="D10" t="s">
-        <v>260</v>
-      </c>
-      <c r="E10" t="s">
-        <v>115</v>
-      </c>
-      <c r="F10" t="s">
-        <v>261</v>
-      </c>
-      <c r="G10">
-        <v>139</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>6.55</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10" t="s">
-        <v>30</v>
-      </c>
-      <c r="M10" t="s">
-        <v>31</v>
-      </c>
-      <c r="N10" t="s">
-        <v>71</v>
-      </c>
-      <c r="O10" t="s">
-        <v>89</v>
-      </c>
-      <c r="P10" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>216</v>
-      </c>
-      <c r="R10">
-        <v>1</v>
-      </c>
-      <c r="S10" t="s">
-        <v>217</v>
-      </c>
-      <c r="T10" t="s">
-        <v>218</v>
-      </c>
-      <c r="U10" t="s">
-        <v>37</v>
-      </c>
-      <c r="V10" t="s">
-        <v>54</v>
-      </c>
-      <c r="W10" t="s">
-        <v>225</v>
-      </c>
-      <c r="X10" t="s">
-        <v>225</v>
-      </c>
-      <c r="AA10" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28">
-      <c r="A11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="1">
-        <v>897</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1.44</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1">
-        <v>1</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="R11" s="1">
-        <v>1</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="AB11" s="1"/>
-    </row>
-    <row r="12" spans="1:28">
-      <c r="A12" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G12" s="1">
-        <v>122</v>
-      </c>
-      <c r="H12" s="1">
-        <v>400</v>
-      </c>
-      <c r="I12" s="1">
-        <v>4.76</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1">
-        <v>1</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="R12" s="1">
-        <v>1</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="AB12" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB6"/>
-  <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="N5" sqref="A5:XFD13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="15.83203125" customWidth="1"/>
-    <col min="11" max="11" width="18" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" customWidth="1"/>
-    <col min="14" max="14" width="25.33203125" customWidth="1"/>
-    <col min="15" max="16" width="16.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24" customWidth="1"/>
-    <col min="18" max="18" width="20.33203125" customWidth="1"/>
-    <col min="19" max="19" width="14.83203125" customWidth="1"/>
-    <col min="20" max="20" width="19.1640625" customWidth="1"/>
-    <col min="21" max="21" width="21.5" customWidth="1"/>
-    <col min="22" max="22" width="15.33203125" customWidth="1"/>
-    <col min="23" max="23" width="14.83203125" customWidth="1"/>
-    <col min="24" max="24" width="22" customWidth="1"/>
-    <col min="27" max="27" width="10" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" s="1" customFormat="1">
-      <c r="A2" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1098</v>
-      </c>
-      <c r="H2" s="1">
-        <v>9990</v>
-      </c>
-      <c r="I2" s="1">
-        <v>2.12</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="R2" s="1">
-        <v>1</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W2" s="1" t="s">
         <v>187</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="AA2" s="1" t="s">
         <v>269</v>
@@ -7017,9 +7153,7 @@
       <c r="X4" t="s">
         <v>225</v>
       </c>
-      <c r="Y4" t="s">
-        <v>226</v>
-      </c>
+      <c r="Y4"/>
       <c r="Z4"/>
       <c r="AA4" s="1" t="s">
         <v>270</v>
@@ -7106,7 +7240,9 @@
       <c r="AA5" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="AB5" s="1"/>
+      <c r="AB5" s="1" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="6" spans="1:28">
       <c r="A6" s="1" t="s">
@@ -7181,9 +7317,7 @@
       <c r="X6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Y6" s="1" t="s">
-        <v>226</v>
-      </c>
+      <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1" t="s">
         <v>268</v>
